--- a/data/Vaentingar_markadsadila.xlsx
+++ b/data/Vaentingar_markadsadila.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\HAGFRAEDISVID\Innlendir fjármálamarkaðir\4. Markaðskönnun\2025\Q3 11.-13. ágúst\B3. Excel skjal fyrir vef - birtingarskjal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC932E1-6664-4C29-AB5E-1DCCFC734D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C11C0A7-FA1D-40E5-B0C4-C00404F3374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Vaentingar_markadsadila.xlsx
+++ b/data/Vaentingar_markadsadila.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29819"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\HAGFRAEDISVID\Innlendir fjármálamarkaðir\4. Markaðskönnun\2025\Q3 11.-13. ágúst\B3. Excel skjal fyrir vef - birtingarskjal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\HAGFRAEDISVID\Innlendir fjármálamarkaðir\4. Markaðskönnun\2026\Q1 19. -21. janúar\B3. Excel skjal fyrir vef - birtingarskjal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C11C0A7-FA1D-40E5-B0C4-C00404F3374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC96EF3-C621-4682-A1F5-D964B0FD76B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Efnisyfirlit_Contents" sheetId="11" r:id="rId1"/>
@@ -47,12 +47,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="220">
   <si>
     <t>Seðlabanki Íslands / Central Bank of Iceland</t>
   </si>
   <si>
-    <t>Birtingardagur / Date of publication: 14/5/2025</t>
+    <t>Birtingardagur / Date of publication: 28/1/2026</t>
   </si>
   <si>
     <r>
@@ -499,6 +499,18 @@
     <t>11.-13. ágúst 2025</t>
   </si>
   <si>
+    <t>2025Q4</t>
+  </si>
+  <si>
+    <t>3. til 5. nóvember 2025</t>
+  </si>
+  <si>
+    <t>2026Q1</t>
+  </si>
+  <si>
+    <t>19. til 21. janúar 2026</t>
+  </si>
+  <si>
     <t>Væntingakönnun markaðsaðila / Market expectations survey</t>
   </si>
   <si>
@@ -730,7 +742,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +995,19 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1354,7 +1379,7 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1449,6 +1474,26 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -1805,7 +1850,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:G77"/>
+  <dimension ref="B1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2559,6 +2604,28 @@
       </c>
       <c r="D77" s="7" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" s="10">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2587,11 +2654,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BF33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="AU11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BD8" sqref="BD8"/>
+      <selection pane="bottomRight" activeCell="BF26" sqref="BF26"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -2607,17 +2674,19 @@
     <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="56" width="9.140625" style="1"/>
+    <col min="57" max="57" width="9.140625" style="11"/>
+    <col min="58" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:58">
       <c r="A3" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2627,15 +2696,15 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:56" ht="17.25">
+    <row r="4" spans="1:58" ht="17.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:58">
       <c r="A5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="25"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2684,9 +2753,9 @@
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:58">
       <c r="A7" s="21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2735,9 +2804,9 @@
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:58">
       <c r="A8" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2786,9 +2855,9 @@
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:58">
       <c r="A9" s="22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -2845,11 +2914,12 @@
       <c r="BB9" s="22"/>
       <c r="BC9" s="22"/>
       <c r="BD9" s="22"/>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BE9" s="22"/>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2905,10 +2975,11 @@
       <c r="BB10" s="11"/>
       <c r="BC10" s="11"/>
       <c r="BD10" s="11"/>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BF10" s="51"/>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>33</v>
@@ -3075,10 +3146,16 @@
       <c r="BD11" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF11" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" s="29">
         <v>5.89</v>
@@ -3245,10 +3322,16 @@
       <c r="BD12" s="36">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="BF12" s="34">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B13" s="29">
         <v>5.17</v>
@@ -3415,10 +3498,16 @@
       <c r="BD13" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BE13" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BF13" s="34">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B14" s="29">
         <v>5.07</v>
@@ -3585,10 +3674,16 @@
       <c r="BD14" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BE14" s="34">
+        <v>3.6</v>
+      </c>
+      <c r="BF14" s="34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B15" s="24">
         <v>4.95</v>
@@ -3755,10 +3850,16 @@
       <c r="BD15" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BE15" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="BF15" s="34">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B16" s="29">
         <v>4.71</v>
@@ -3925,8 +4026,14 @@
       <c r="BD16" s="36">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="BF16" s="34">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" s="37"/>
       <c r="B17" s="29"/>
       <c r="C17" s="11"/>
@@ -3983,10 +4090,12 @@
       <c r="BB17" s="11"/>
       <c r="BC17" s="11"/>
       <c r="BD17" s="11"/>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>33</v>
@@ -4153,10 +4262,16 @@
       <c r="BD18" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BE18" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF18" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B19" s="24">
         <v>6.15</v>
@@ -4323,10 +4438,16 @@
       <c r="BD19" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BE19" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="BF19" s="34">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B20" s="29">
         <v>5.5</v>
@@ -4493,10 +4614,16 @@
       <c r="BD20" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BE20" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BF20" s="34">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" s="37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B21" s="29">
         <v>5.0999999999999996</v>
@@ -4663,10 +4790,16 @@
       <c r="BD21" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BE21" s="34">
+        <v>3.7</v>
+      </c>
+      <c r="BF21" s="34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" s="24">
         <v>5.15</v>
@@ -4833,10 +4966,16 @@
       <c r="BD22" s="36">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:56">
+      <c r="BE22" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="BF22" s="34">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B23" s="24">
         <v>4.8499999999999996</v>
@@ -5003,8 +5142,14 @@
       <c r="BD23" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:56">
+      <c r="BE23" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="BF23" s="34">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" s="37"/>
       <c r="B24" s="29"/>
       <c r="C24" s="11"/>
@@ -5061,10 +5206,12 @@
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
       <c r="BD24" s="11"/>
-    </row>
-    <row r="25" spans="1:56">
+      <c r="BE24" s="34"/>
+      <c r="BF24" s="34"/>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>33</v>
@@ -5231,10 +5378,16 @@
       <c r="BD25" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:56">
+      <c r="BE25" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF25" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
       <c r="A26" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26" s="29">
         <v>1.01</v>
@@ -5401,10 +5554,16 @@
       <c r="BD26" s="36">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:56">
+      <c r="BE26" s="34">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="BF26" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B27" s="29">
         <v>1.24</v>
@@ -5571,10 +5730,16 @@
       <c r="BD27" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:56">
+      <c r="BE27" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="BF27" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
       <c r="A28" s="37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B28" s="29">
         <v>1.19</v>
@@ -5741,10 +5906,16 @@
       <c r="BD28" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:56">
+      <c r="BE28" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="BF28" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
       <c r="A29" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B29" s="29">
         <v>1.34</v>
@@ -5911,10 +6082,16 @@
       <c r="BD29" s="36">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:56">
+      <c r="BE29" s="34">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="BF29" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
       <c r="A30" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B30" s="29">
         <v>1.1399999999999999</v>
@@ -6081,8 +6258,14 @@
       <c r="BD30" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:56">
+      <c r="BE30" s="34">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="BF30" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -6139,10 +6322,11 @@
       <c r="BB31" s="22"/>
       <c r="BC31" s="22"/>
       <c r="BD31" s="22"/>
-    </row>
-    <row r="32" spans="1:56">
+      <c r="BE31" s="22"/>
+    </row>
+    <row r="32" spans="1:58">
       <c r="A32" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6194,6 +6378,7 @@
       <c r="AW32" s="11"/>
       <c r="AX32" s="11"/>
       <c r="AY32" s="11"/>
+      <c r="BF32" s="51"/>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="11"/>
@@ -6255,11 +6440,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BF33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="AU11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BD9" sqref="BD9"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="AT11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BG10" sqref="BG10"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -6275,28 +6460,30 @@
     <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="56" width="9.140625" style="1"/>
+    <col min="57" max="57" width="8.140625" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:58">
       <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" ht="17.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="17.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:58">
       <c r="A5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="25"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -6345,9 +6532,9 @@
       <c r="AT6" s="11"/>
       <c r="AU6" s="11"/>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:58">
       <c r="A7" s="21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -6396,9 +6583,9 @@
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:58">
       <c r="A8" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -6447,9 +6634,9 @@
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:58">
       <c r="A9" s="22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -6504,10 +6691,10 @@
       <c r="AZ9" s="22"/>
       <c r="BA9" s="22"/>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:58">
       <c r="A10" s="42"/>
       <c r="B10" s="43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -6563,10 +6750,12 @@
       <c r="BB10" s="42"/>
       <c r="BC10" s="42"/>
       <c r="BD10" s="42"/>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="51"/>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>33</v>
@@ -6733,10 +6922,16 @@
       <c r="BD11" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF11" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" s="29">
         <v>4.91</v>
@@ -6903,10 +7098,16 @@
       <c r="BD12" s="36">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12" s="48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BF12" s="34">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B13" s="29">
         <v>5.1100000000000003</v>
@@ -7073,10 +7274,16 @@
       <c r="BD13" s="36">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BE13" s="48">
+        <v>7.8</v>
+      </c>
+      <c r="BF13" s="34">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B14" s="29">
         <v>5.38</v>
@@ -7243,10 +7450,16 @@
       <c r="BD14" s="36">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BE14" s="48">
+        <v>7.5</v>
+      </c>
+      <c r="BF14" s="34">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B15" s="29">
         <v>5.53</v>
@@ -7413,10 +7626,16 @@
       <c r="BD15" s="36">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BE15" s="48">
+        <v>7.2</v>
+      </c>
+      <c r="BF15" s="34">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B16" s="29">
         <v>5.73</v>
@@ -7583,8 +7802,14 @@
       <c r="BD16" s="36">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16" s="48">
+        <v>7</v>
+      </c>
+      <c r="BF16" s="34">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" s="37"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -7641,10 +7866,12 @@
       <c r="BB17" s="11"/>
       <c r="BC17" s="11"/>
       <c r="BD17" s="11"/>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17" s="49"/>
+      <c r="BF17" s="34"/>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>33</v>
@@ -7811,10 +8038,16 @@
       <c r="BD18" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BE18" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF18" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B19" s="29">
         <v>5</v>
@@ -7981,10 +8214,16 @@
       <c r="BD19" s="36">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BE19" s="49">
+        <v>8.25</v>
+      </c>
+      <c r="BF19" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B20" s="29">
         <v>5</v>
@@ -8151,10 +8390,16 @@
       <c r="BD20" s="36">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BE20" s="49">
+        <v>7.75</v>
+      </c>
+      <c r="BF20" s="34">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" s="37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B21" s="24">
         <v>5.25</v>
@@ -8321,10 +8566,16 @@
       <c r="BD21" s="36">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BE21" s="49">
+        <v>7.5</v>
+      </c>
+      <c r="BF21" s="34">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" s="29">
         <v>5.37</v>
@@ -8491,10 +8742,16 @@
       <c r="BD22" s="36">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:56">
+      <c r="BE22" s="49">
+        <v>7.25</v>
+      </c>
+      <c r="BF22" s="34">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B23" s="24">
         <v>5.75</v>
@@ -8661,8 +8918,14 @@
       <c r="BD23" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:56">
+      <c r="BE23" s="48">
+        <v>7</v>
+      </c>
+      <c r="BF23" s="34">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" s="37"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8719,10 +8982,12 @@
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
       <c r="BD24" s="11"/>
-    </row>
-    <row r="25" spans="1:56">
+      <c r="BE24" s="49"/>
+      <c r="BF24" s="34"/>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>33</v>
@@ -8889,10 +9154,16 @@
       <c r="BD25" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:56">
+      <c r="BE25" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF25" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
       <c r="A26" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26" s="29">
         <v>0.16</v>
@@ -9059,10 +9330,16 @@
       <c r="BD26" s="36">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:56">
+      <c r="BE26" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="BF26" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B27" s="29">
         <v>0.27</v>
@@ -9229,10 +9506,16 @@
       <c r="BD27" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:56">
+      <c r="BE27" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="BF27" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
       <c r="A28" s="37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B28" s="29">
         <v>0.46</v>
@@ -9399,10 +9682,16 @@
       <c r="BD28" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:56">
+      <c r="BE28" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="BF28" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
       <c r="A29" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B29" s="29">
         <v>0.68</v>
@@ -9569,10 +9858,16 @@
       <c r="BD29" s="36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:56">
+      <c r="BE29" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="BF29" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
       <c r="A30" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B30" s="29">
         <v>0.76</v>
@@ -9739,8 +10034,14 @@
       <c r="BD30" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:56">
+      <c r="BE30" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="BF30" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -9797,10 +10098,11 @@
       <c r="BB31" s="22"/>
       <c r="BC31" s="22"/>
       <c r="BD31" s="22"/>
-    </row>
-    <row r="32" spans="1:56">
+      <c r="BE31" s="27"/>
+    </row>
+    <row r="32" spans="1:58">
       <c r="A32" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9853,6 +10155,7 @@
       <c r="AX32" s="11"/>
       <c r="AY32" s="11"/>
       <c r="AZ32" s="11"/>
+      <c r="BF32" s="51"/>
     </row>
     <row r="33" spans="1:47">
       <c r="A33" s="11"/>
@@ -9915,11 +10218,11 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD39"/>
+  <dimension ref="A1:BF39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="AY8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BD5" sqref="BD5"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="BC8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BF34" sqref="BF34:BF36"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -9930,25 +10233,25 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:58">
       <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" ht="17.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="17.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:58">
       <c r="A5" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>33</v>
@@ -10115,10 +10418,16 @@
       <c r="BD6" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="BE6" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" s="21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -10175,10 +10484,11 @@
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
       <c r="BD7" s="11"/>
-    </row>
-    <row r="8" spans="1:56">
+      <c r="BE7" s="49"/>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -10235,13 +10545,14 @@
       <c r="BB8" s="11"/>
       <c r="BC8" s="11"/>
       <c r="BD8" s="11"/>
-    </row>
-    <row r="9" spans="1:56">
+      <c r="BE8" s="49"/>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" s="22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -10297,10 +10608,11 @@
       <c r="BB9" s="33"/>
       <c r="BC9" s="33"/>
       <c r="BD9" s="33"/>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BE9" s="33"/>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B10" s="34">
         <v>4.99</v>
@@ -10467,10 +10779,16 @@
       <c r="BD10" s="34">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BE10" s="48">
+        <v>3.4</v>
+      </c>
+      <c r="BF10" s="52">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B11" s="34">
         <v>5</v>
@@ -10637,10 +10955,16 @@
       <c r="BD11" s="34">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11" s="48">
+        <v>3.4</v>
+      </c>
+      <c r="BF11" s="34">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B12" s="34">
         <v>0.84</v>
@@ -10807,8 +11131,14 @@
       <c r="BD12" s="34">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="BF12" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -10865,10 +11195,12 @@
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
       <c r="BD13" s="11"/>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="34"/>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -10925,13 +11257,15 @@
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
       <c r="BD14" s="11"/>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="34"/>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -10987,10 +11321,12 @@
       <c r="BB15" s="33"/>
       <c r="BC15" s="33"/>
       <c r="BD15" s="33"/>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="34"/>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" s="34">
         <v>164.72</v>
@@ -11157,10 +11493,16 @@
       <c r="BD16" s="34">
         <v>146.30000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16" s="48">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="BF16" s="52">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" s="34">
         <v>165</v>
@@ -11327,10 +11669,16 @@
       <c r="BD17" s="34">
         <v>145.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17" s="48">
+        <v>149</v>
+      </c>
+      <c r="BF17" s="34">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B18" s="34">
         <v>5.65</v>
@@ -11497,8 +11845,14 @@
       <c r="BD18" s="34">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BE18" s="48">
+        <v>5.5</v>
+      </c>
+      <c r="BF18" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="11"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -11555,10 +11909,12 @@
       <c r="BB19" s="34"/>
       <c r="BC19" s="34"/>
       <c r="BD19" s="34"/>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BE19" s="48"/>
+      <c r="BF19" s="34"/>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -11615,13 +11971,15 @@
       <c r="BB20" s="34"/>
       <c r="BC20" s="34"/>
       <c r="BD20" s="34"/>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="34"/>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" s="22" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -11677,10 +12035,12 @@
       <c r="BB21" s="33"/>
       <c r="BC21" s="33"/>
       <c r="BD21" s="33"/>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BE21" s="33"/>
+      <c r="BF21" s="34"/>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B22" s="34">
         <v>5.73</v>
@@ -11847,10 +12207,16 @@
       <c r="BD22" s="34">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:56">
+      <c r="BE22" s="48">
+        <v>7</v>
+      </c>
+      <c r="BF22" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B23" s="34">
         <v>5.5</v>
@@ -12017,10 +12383,16 @@
       <c r="BD23" s="34">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:56">
+      <c r="BE23" s="48">
+        <v>7</v>
+      </c>
+      <c r="BF23" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B24" s="34">
         <v>1.02</v>
@@ -12187,8 +12559,14 @@
       <c r="BD24" s="34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:56">
+      <c r="BE24" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BF24" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12245,10 +12623,12 @@
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
       <c r="BD25" s="11"/>
-    </row>
-    <row r="26" spans="1:56">
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="34"/>
+    </row>
+    <row r="26" spans="1:58">
       <c r="A26" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12296,13 +12676,15 @@
       <c r="AS26" s="11"/>
       <c r="AT26" s="11"/>
       <c r="AU26" s="11"/>
-    </row>
-    <row r="27" spans="1:56">
+      <c r="BE26" s="48"/>
+      <c r="BF26" s="34"/>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" s="22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -12358,10 +12740,12 @@
       <c r="BB27" s="33"/>
       <c r="BC27" s="33"/>
       <c r="BD27" s="33"/>
-    </row>
-    <row r="28" spans="1:56">
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="34"/>
+    </row>
+    <row r="28" spans="1:58">
       <c r="A28" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -12504,10 +12888,16 @@
       <c r="BD28" s="34">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:56">
+      <c r="BE28" s="48">
+        <v>6.4</v>
+      </c>
+      <c r="BF28" s="52">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
       <c r="A29" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -12650,10 +13040,16 @@
       <c r="BD29" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:56">
+      <c r="BE29" s="48">
+        <v>6.5</v>
+      </c>
+      <c r="BF29" s="34">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
       <c r="A30" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -12796,8 +13192,14 @@
       <c r="BD30" s="34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:56">
+      <c r="BE30" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="BF30" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
       <c r="A31" s="11"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -12854,10 +13256,12 @@
       <c r="BB31" s="34"/>
       <c r="BC31" s="34"/>
       <c r="BD31" s="34"/>
-    </row>
-    <row r="32" spans="1:56">
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="34"/>
+    </row>
+    <row r="32" spans="1:58">
       <c r="A32" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -12914,13 +13318,15 @@
       <c r="BB32" s="34"/>
       <c r="BC32" s="34"/>
       <c r="BD32" s="34"/>
-    </row>
-    <row r="33" spans="1:56">
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="34"/>
+    </row>
+    <row r="33" spans="1:58">
       <c r="A33" s="22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -12976,10 +13382,12 @@
       <c r="BB33" s="33"/>
       <c r="BC33" s="33"/>
       <c r="BD33" s="33"/>
-    </row>
-    <row r="34" spans="1:56">
+      <c r="BE33" s="33"/>
+      <c r="BF33" s="34"/>
+    </row>
+    <row r="34" spans="1:58">
       <c r="A34" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -13122,10 +13530,16 @@
       <c r="BD34" s="34">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:56">
+      <c r="BE34" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="BF34" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58">
       <c r="A35" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -13268,10 +13682,16 @@
       <c r="BD35" s="34">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:56">
+      <c r="BE35" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="BF35" s="34">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58">
       <c r="A36" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -13414,8 +13834,14 @@
       <c r="BD36" s="34">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="37" spans="1:56">
+      <c r="BE36" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BF36" s="34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -13472,8 +13898,10 @@
       <c r="BB37" s="22"/>
       <c r="BC37" s="22"/>
       <c r="BD37" s="22"/>
-    </row>
-    <row r="38" spans="1:56">
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="34"/>
+    </row>
+    <row r="38" spans="1:58">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -13530,10 +13958,11 @@
       <c r="BB38" s="11"/>
       <c r="BC38" s="11"/>
       <c r="BD38" s="11"/>
-    </row>
-    <row r="39" spans="1:56">
+      <c r="BF38" s="51"/>
+    </row>
+    <row r="39" spans="1:58">
       <c r="A39" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -13594,11 +14023,11 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD40"/>
+  <dimension ref="A1:BF40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="AY8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BD5" sqref="BD5"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="BC8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BF6" sqref="BF6"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -13609,30 +14038,30 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:58">
       <c r="A2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" ht="17.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="17.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:58">
       <c r="A5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>33</v>
@@ -13799,10 +14228,16 @@
       <c r="BD6" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="BE6" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -13859,10 +14294,11 @@
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
       <c r="BD7" s="11"/>
-    </row>
-    <row r="8" spans="1:56">
+      <c r="BE7" s="49"/>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -13919,13 +14355,14 @@
       <c r="BB8" s="11"/>
       <c r="BC8" s="11"/>
       <c r="BD8" s="11"/>
-    </row>
-    <row r="9" spans="1:56">
+      <c r="BE8" s="49"/>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" s="22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -13981,10 +14418,11 @@
       <c r="BB9" s="28"/>
       <c r="BC9" s="28"/>
       <c r="BD9" s="28"/>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BE9" s="28"/>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B10" s="24">
         <v>4.68</v>
@@ -14151,10 +14589,16 @@
       <c r="BD10" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BE10" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="BF10" s="52">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B11" s="24">
         <v>5</v>
@@ -14321,10 +14765,16 @@
       <c r="BD11" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11" s="48">
+        <v>3</v>
+      </c>
+      <c r="BF11" s="34">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B12" s="24">
         <v>0.89</v>
@@ -14491,8 +14941,14 @@
       <c r="BD12" s="24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="BF12" s="34">
+        <v>0.39989999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="11"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -14549,10 +15005,12 @@
       <c r="BB13" s="24"/>
       <c r="BC13" s="24"/>
       <c r="BD13" s="24"/>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="34"/>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -14609,13 +15067,15 @@
       <c r="BB14" s="24"/>
       <c r="BC14" s="24"/>
       <c r="BD14" s="24"/>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="34"/>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -14671,10 +15131,12 @@
       <c r="BB15" s="28"/>
       <c r="BC15" s="28"/>
       <c r="BD15" s="28"/>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="34"/>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" s="24">
         <v>167.65</v>
@@ -14841,10 +15303,16 @@
       <c r="BD16" s="24">
         <v>147.30000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16" s="48">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="BF16" s="52">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" s="24">
         <v>168.5</v>
@@ -15011,10 +15479,16 @@
       <c r="BD17" s="24">
         <v>148</v>
       </c>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17" s="48">
+        <v>150</v>
+      </c>
+      <c r="BF17" s="34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B18" s="24">
         <v>10.94</v>
@@ -15181,8 +15655,14 @@
       <c r="BD18" s="24">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BE18" s="48">
+        <v>6.4</v>
+      </c>
+      <c r="BF18" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="11"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -15239,10 +15719,12 @@
       <c r="BB19" s="24"/>
       <c r="BC19" s="24"/>
       <c r="BD19" s="24"/>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="34"/>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -15299,13 +15781,15 @@
       <c r="BB20" s="24"/>
       <c r="BC20" s="24"/>
       <c r="BD20" s="24"/>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="34"/>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" s="22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -15361,10 +15845,12 @@
       <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
       <c r="BD21" s="28"/>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="34"/>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B22" s="24">
         <v>6.41</v>
@@ -15531,10 +16017,16 @@
       <c r="BD22" s="24">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:56">
+      <c r="BE22" s="48">
+        <v>6.4</v>
+      </c>
+      <c r="BF22" s="52">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B23" s="24">
         <v>6.13</v>
@@ -15701,10 +16193,16 @@
       <c r="BD23" s="24">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:56">
+      <c r="BE23" s="48">
+        <v>6.5</v>
+      </c>
+      <c r="BF23" s="34">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B24" s="24">
         <v>1.34</v>
@@ -15871,8 +16369,14 @@
       <c r="BD24" s="24">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:56">
+      <c r="BE24" s="48">
+        <v>0.7</v>
+      </c>
+      <c r="BF24" s="34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -15929,10 +16433,12 @@
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
       <c r="BD25" s="11"/>
-    </row>
-    <row r="26" spans="1:56">
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="34"/>
+    </row>
+    <row r="26" spans="1:58">
       <c r="A26" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -15989,13 +16495,15 @@
       <c r="BB26" s="11"/>
       <c r="BC26" s="11"/>
       <c r="BD26" s="11"/>
-    </row>
-    <row r="27" spans="1:56">
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="34"/>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" s="22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -16009,7 +16517,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
       <c r="N27" s="28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
@@ -16053,10 +16561,12 @@
       <c r="BB27" s="28"/>
       <c r="BC27" s="28"/>
       <c r="BD27" s="28"/>
-    </row>
-    <row r="28" spans="1:56">
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="34"/>
+    </row>
+    <row r="28" spans="1:58">
       <c r="A28" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -16199,10 +16709,16 @@
       <c r="BD28" s="24">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:56">
+      <c r="BE28" s="48">
+        <v>6</v>
+      </c>
+      <c r="BF28" s="52">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
       <c r="A29" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -16345,10 +16861,16 @@
       <c r="BD29" s="24">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:56">
+      <c r="BE29" s="48">
+        <v>6</v>
+      </c>
+      <c r="BF29" s="34">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
       <c r="A30" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -16491,8 +17013,14 @@
       <c r="BD30" s="24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:56">
+      <c r="BE30" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="BF30" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
       <c r="A31" s="11"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -16549,10 +17077,12 @@
       <c r="BB31" s="24"/>
       <c r="BC31" s="24"/>
       <c r="BD31" s="24"/>
-    </row>
-    <row r="32" spans="1:56">
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="34"/>
+    </row>
+    <row r="32" spans="1:58">
       <c r="A32" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -16609,13 +17139,15 @@
       <c r="BB32" s="24"/>
       <c r="BC32" s="24"/>
       <c r="BD32" s="24"/>
-    </row>
-    <row r="33" spans="1:56">
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="34"/>
+    </row>
+    <row r="33" spans="1:58">
       <c r="A33" s="22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -16671,10 +17203,12 @@
       <c r="BB33" s="28"/>
       <c r="BC33" s="28"/>
       <c r="BD33" s="28"/>
-    </row>
-    <row r="34" spans="1:56">
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="34"/>
+    </row>
+    <row r="34" spans="1:58">
       <c r="A34" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -16817,10 +17351,16 @@
       <c r="BD34" s="24">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="35" spans="1:56">
+      <c r="BE34" s="48">
+        <v>2.9</v>
+      </c>
+      <c r="BF34" s="52">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58">
       <c r="A35" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -16963,10 +17503,16 @@
       <c r="BD35" s="24">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="36" spans="1:56">
+      <c r="BE35" s="48">
+        <v>3</v>
+      </c>
+      <c r="BF35" s="34">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58">
       <c r="A36" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -17109,8 +17655,14 @@
       <c r="BD36" s="24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:56">
+      <c r="BE36" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="BF36" s="34">
+        <v>0.75249999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58">
       <c r="A37" s="22"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17167,8 +17719,9 @@
       <c r="BB37" s="28"/>
       <c r="BC37" s="28"/>
       <c r="BD37" s="28"/>
-    </row>
-    <row r="38" spans="1:56">
+      <c r="BE37" s="28"/>
+    </row>
+    <row r="38" spans="1:58">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -17218,10 +17771,11 @@
       <c r="AU38" s="11"/>
       <c r="AV38" s="11"/>
       <c r="AW38" s="11"/>
-    </row>
-    <row r="39" spans="1:56">
+      <c r="BF38" s="51"/>
+    </row>
+    <row r="39" spans="1:58">
       <c r="A39" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -17272,7 +17826,7 @@
       <c r="AV39" s="11"/>
       <c r="AW39" s="11"/>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:58">
       <c r="A40" s="32"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -17335,11 +17889,11 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="AY8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BD5" sqref="BD5"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="BD8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BF9" sqref="BF9:BF26"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -17352,25 +17906,25 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:58">
       <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" ht="17.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="17.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:58">
       <c r="A5" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>33</v>
@@ -17537,10 +18091,16 @@
       <c r="BD6" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="BE6" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" s="21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -17597,10 +18157,11 @@
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
       <c r="BD7" s="11"/>
-    </row>
-    <row r="8" spans="1:56">
+      <c r="BE7" s="49"/>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -17657,13 +18218,14 @@
       <c r="BB8" s="11"/>
       <c r="BC8" s="11"/>
       <c r="BD8" s="11"/>
-    </row>
-    <row r="9" spans="1:56">
+      <c r="BE8" s="49"/>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" s="22" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -17719,10 +18281,12 @@
       <c r="BB9" s="28"/>
       <c r="BC9" s="28"/>
       <c r="BD9" s="28"/>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="53"/>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B10" s="24">
         <v>4.55</v>
@@ -17889,10 +18453,16 @@
       <c r="BD10" s="24">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BE10" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="BF10" s="52">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B11" s="29">
         <v>4.8</v>
@@ -18059,10 +18629,16 @@
       <c r="BD11" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11" s="48">
+        <v>3</v>
+      </c>
+      <c r="BF11" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B12" s="24">
         <v>0.85</v>
@@ -18229,8 +18805,14 @@
       <c r="BD12" s="24">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="BF12" s="34">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="11"/>
       <c r="B13" s="24"/>
       <c r="C13" s="29"/>
@@ -18287,10 +18869,12 @@
       <c r="BB13" s="11"/>
       <c r="BC13" s="11"/>
       <c r="BD13" s="11"/>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="34"/>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -18347,13 +18931,15 @@
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
       <c r="BD14" s="11"/>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="11"/>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -18409,10 +18995,12 @@
       <c r="BB15" s="28"/>
       <c r="BC15" s="28"/>
       <c r="BD15" s="28"/>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="24"/>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -18555,10 +19143,16 @@
       <c r="BD16" s="24">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16" s="48">
+        <v>5.9</v>
+      </c>
+      <c r="BF16" s="52">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -18701,10 +19295,16 @@
       <c r="BD17" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17" s="48">
+        <v>6</v>
+      </c>
+      <c r="BF17" s="34">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -18847,8 +19447,14 @@
       <c r="BD18" s="24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BE18" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BF18" s="34">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -18905,10 +19511,12 @@
       <c r="BB19" s="24"/>
       <c r="BC19" s="24"/>
       <c r="BD19" s="24"/>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="11"/>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" s="11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -18965,13 +19573,15 @@
       <c r="BB20" s="24"/>
       <c r="BC20" s="24"/>
       <c r="BD20" s="24"/>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="11"/>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" s="22" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -19027,10 +19637,12 @@
       <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
       <c r="BD21" s="28"/>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="24"/>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -19173,10 +19785,16 @@
       <c r="BD22" s="24">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:56">
+      <c r="BE22" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="BF22" s="52">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -19319,10 +19937,16 @@
       <c r="BD23" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:56">
+      <c r="BE23" s="48">
+        <v>2.95</v>
+      </c>
+      <c r="BF23" s="34">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="29"/>
@@ -19465,8 +20089,14 @@
       <c r="BD24" s="24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:56">
+      <c r="BE24" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="BF24" s="34">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -19523,8 +20153,10 @@
       <c r="BB25" s="28"/>
       <c r="BC25" s="28"/>
       <c r="BD25" s="28"/>
-    </row>
-    <row r="26" spans="1:56">
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="24"/>
+    </row>
+    <row r="26" spans="1:58">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -19574,10 +20206,11 @@
       <c r="AU26" s="11"/>
       <c r="AV26" s="11"/>
       <c r="AW26" s="11"/>
-    </row>
-    <row r="27" spans="1:56">
+      <c r="BF26" s="51"/>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -19627,7 +20260,7 @@
       <c r="AU27" s="11"/>
       <c r="AV27" s="11"/>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:58">
       <c r="A28" s="6"/>
     </row>
   </sheetData>
@@ -19642,11 +20275,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="AY8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BD5" sqref="BD5"/>
+      <selection pane="bottomRight" activeCell="BF9" sqref="BF9:BF12"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -19659,25 +20292,25 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:58">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:58">
       <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" ht="17.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="17.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:58">
       <c r="A5" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>33</v>
@@ -19844,10 +20477,16 @@
       <c r="BD6" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:56">
+      <c r="BE6" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" s="21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -19904,10 +20543,11 @@
       <c r="BB7" s="11"/>
       <c r="BC7" s="11"/>
       <c r="BD7" s="11"/>
-    </row>
-    <row r="8" spans="1:56">
+      <c r="BE7" s="46"/>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -19964,13 +20604,14 @@
       <c r="BB8" s="11"/>
       <c r="BC8" s="11"/>
       <c r="BD8" s="11"/>
-    </row>
-    <row r="9" spans="1:56">
+      <c r="BE8" s="46"/>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" s="22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -20026,10 +20667,11 @@
       <c r="BB9" s="28"/>
       <c r="BC9" s="28"/>
       <c r="BD9" s="28"/>
-    </row>
-    <row r="10" spans="1:56">
+      <c r="BE9" s="28"/>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B10" s="29">
         <v>4.32</v>
@@ -20196,10 +20838,16 @@
       <c r="BD10" s="24">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:56">
+      <c r="BE10" s="45">
+        <v>3.1</v>
+      </c>
+      <c r="BF10" s="52">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B11" s="29">
         <v>4.5</v>
@@ -20366,10 +21014,16 @@
       <c r="BD11" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:56">
+      <c r="BE11" s="45">
+        <v>3</v>
+      </c>
+      <c r="BF11" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B12" s="29">
         <v>0.82</v>
@@ -20536,8 +21190,14 @@
       <c r="BD12" s="24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:56">
+      <c r="BE12" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="BF12" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -20594,10 +21254,12 @@
       <c r="BB13" s="24"/>
       <c r="BC13" s="24"/>
       <c r="BD13" s="24"/>
-    </row>
-    <row r="14" spans="1:56">
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="34"/>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -20654,13 +21316,15 @@
       <c r="BB14" s="24"/>
       <c r="BC14" s="24"/>
       <c r="BD14" s="24"/>
-    </row>
-    <row r="15" spans="1:56">
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="34"/>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="22" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -20716,10 +21380,12 @@
       <c r="BB15" s="28"/>
       <c r="BC15" s="28"/>
       <c r="BD15" s="28"/>
-    </row>
-    <row r="16" spans="1:56">
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="34"/>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" s="29">
         <v>7.02</v>
@@ -20886,10 +21552,16 @@
       <c r="BD16" s="24">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:56">
+      <c r="BE16" s="45">
+        <v>5.8</v>
+      </c>
+      <c r="BF16" s="52">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" s="29">
         <v>7.05</v>
@@ -21056,10 +21728,16 @@
       <c r="BD17" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:56">
+      <c r="BE17" s="45">
+        <v>5.8</v>
+      </c>
+      <c r="BF17" s="34">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58">
       <c r="A18" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B18" s="29">
         <v>1.03</v>
@@ -21226,8 +21904,14 @@
       <c r="BD18" s="24">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:56">
+      <c r="BE18" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="BF18" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -21284,10 +21968,12 @@
       <c r="BB19" s="24"/>
       <c r="BC19" s="24"/>
       <c r="BD19" s="24"/>
-    </row>
-    <row r="20" spans="1:56">
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="34"/>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -21344,13 +22030,15 @@
       <c r="BB20" s="24"/>
       <c r="BC20" s="24"/>
       <c r="BD20" s="24"/>
-    </row>
-    <row r="21" spans="1:56">
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="34"/>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" s="22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -21406,10 +22094,12 @@
       <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
       <c r="BD21" s="28"/>
-    </row>
-    <row r="22" spans="1:56">
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="34"/>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B22" s="29">
         <v>2.23</v>
@@ -21576,10 +22266,16 @@
       <c r="BD22" s="24">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:56">
+      <c r="BE22" s="45">
+        <v>2.6</v>
+      </c>
+      <c r="BF22" s="52">
+        <v>2.5032999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B23" s="29">
         <v>2.37</v>
@@ -21746,10 +22442,16 @@
       <c r="BD23" s="24">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:56">
+      <c r="BE23" s="45">
+        <v>2.6</v>
+      </c>
+      <c r="BF23" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B24" s="29">
         <v>0.81</v>
@@ -21916,8 +22618,14 @@
       <c r="BD24" s="24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:56">
+      <c r="BE24" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="BF24" s="34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -21975,7 +22683,7 @@
       <c r="BC25" s="11"/>
       <c r="BD25" s="11"/>
     </row>
-    <row r="26" spans="1:56">
+    <row r="26" spans="1:58">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -22032,10 +22740,11 @@
       <c r="BB26" s="28"/>
       <c r="BC26" s="28"/>
       <c r="BD26" s="28"/>
-    </row>
-    <row r="27" spans="1:56">
+      <c r="BE26" s="28"/>
+    </row>
+    <row r="27" spans="1:58">
       <c r="A27" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -22092,6 +22801,7 @@
       <c r="BB27" s="11"/>
       <c r="BC27" s="11"/>
       <c r="BD27" s="11"/>
+      <c r="BF27" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -22103,11 +22813,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:BC17"/>
+  <dimension ref="A1:BE17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="AY10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BC6" sqref="BC6"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="AU10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BA23" sqref="BA23"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -22118,33 +22828,33 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="17.25">
+    <row r="2" spans="1:57" ht="17.25">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57">
       <c r="A3" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" ht="17.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="17.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:55" ht="30.75" customHeight="1">
+    <row r="5" spans="1:57" ht="30.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57">
       <c r="A7" s="21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -22193,9 +22903,9 @@
       <c r="AT7" s="11"/>
       <c r="AU7" s="11"/>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57">
       <c r="A8" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -22244,9 +22954,9 @@
       <c r="AT8" s="11"/>
       <c r="AU8" s="11"/>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57">
       <c r="A9" s="22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>35</v>
@@ -22410,10 +23120,16 @@
       <c r="BC9" s="23" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:55">
+      <c r="BD9" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE9" s="47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
       <c r="A10" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B10" s="24">
         <v>18.2</v>
@@ -22577,10 +23293,16 @@
       <c r="BC10" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:55">
+      <c r="BD10" s="48">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
       <c r="A11" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B11" s="24">
         <v>40.9</v>
@@ -22744,10 +23466,16 @@
       <c r="BC11" s="24">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:55">
+      <c r="BD11" s="48">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
       <c r="A12" s="11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B12" s="24">
         <v>27.3</v>
@@ -22911,10 +23639,16 @@
       <c r="BC12" s="24">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:55">
+      <c r="BD12" s="48">
+        <v>17.2</v>
+      </c>
+      <c r="BE12" s="24">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
       <c r="A13" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B13" s="24">
         <v>9.1</v>
@@ -23078,10 +23812,16 @@
       <c r="BC13" s="24">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:55">
+      <c r="BD13" s="48">
+        <v>58.6</v>
+      </c>
+      <c r="BE13" s="24">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
       <c r="A14" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B14" s="24">
         <v>4.5</v>
@@ -23245,8 +23985,14 @@
       <c r="BC14" s="24">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:55">
+      <c r="BD14" s="48">
+        <v>24.1</v>
+      </c>
+      <c r="BE14" s="24">
+        <v>12.9032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -23303,7 +24049,7 @@
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:57">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -23359,10 +24105,11 @@
       <c r="BA16" s="11"/>
       <c r="BB16" s="11"/>
       <c r="BC16" s="11"/>
-    </row>
-    <row r="17" spans="1:55">
+      <c r="BD16" s="22"/>
+    </row>
+    <row r="17" spans="1:57">
       <c r="A17" s="42" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -23418,10 +24165,17 @@
       <c r="BA17" s="42"/>
       <c r="BB17" s="42"/>
       <c r="BC17" s="42"/>
+      <c r="BE17" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d0b21864-3105-44b5-88b9-2cedf9af7954}" enabled="1" method="Standard" siteId="{b9aaf114-bd80-4df3-b43d-ab54dd47f83f}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>